--- a/scripts/Elf.xlsx
+++ b/scripts/Elf.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -2628,7 +2628,7 @@
         <v>0.1</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C70:C88" si="2">IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="10"/>
@@ -3361,7 +3361,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C54" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -4067,7 +4067,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C61" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="2"/>
@@ -4571,7 +4571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -6418,7 +6418,7 @@
         <v>0.1</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C70:C80" si="2">IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="2"/>
@@ -8121,8 +8121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8181,221 +8181,221 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B6" s="5">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C36" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5">
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B12" s="5">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B13" s="5">
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -8408,7 +8408,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -8421,7 +8421,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -8434,7 +8434,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -8447,7 +8447,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -8460,7 +8460,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -8473,7 +8473,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -8486,7 +8486,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -8499,7 +8499,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -8512,7 +8512,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -8525,7 +8525,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -8538,7 +8538,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
@@ -8551,7 +8551,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
@@ -8564,7 +8564,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B35&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
@@ -8577,14 +8577,14 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B36&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A6:C36">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/Elf.xlsx
+++ b/scripts/Elf.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="407">
   <si>
     <t>extremely hairy</t>
   </si>
@@ -77,9 +77,6 @@
     <t>petite</t>
   </si>
   <si>
-    <t>full-figured</t>
-  </si>
-  <si>
     <t>Trait</t>
   </si>
   <si>
@@ -1260,6 +1257,9 @@
   </si>
   <si>
     <t>vixen</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1269,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1374,63 +1381,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1454,6 +1463,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="23" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1730,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1742,15 +1752,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>20</v>
@@ -1759,10 +1772,14 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>20</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <f>B2*B2</f>
@@ -1770,7 +1787,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1779,1097 +1800,982 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B6" s="5">
         <v>20</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="5">
         <v>19</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="5">
         <v>18</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B9" s="5">
         <v>17</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B10" s="5">
         <v>16</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B11" s="5">
         <v>15</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B12" s="5">
         <v>14</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B13" s="5">
         <v>13</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B14" s="5">
         <v>12</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="5">
         <v>11</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B17" s="5">
         <v>9</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B18" s="5">
         <v>8</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B19" s="5">
         <v>7</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B20" s="5">
         <v>6</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21" s="5">
         <v>5</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B22" s="5">
         <v>4</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B23" s="5">
         <v>3</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>389</v>
       </c>
       <c r="B29" s="5">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="B30" s="5">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>343</v>
+        <v>154</v>
       </c>
       <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="B32" s="5">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="B33" s="5">
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="B34" s="5">
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="B35" s="5">
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B35&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="B36" s="5">
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B36&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B37" s="5">
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B37&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>369</v>
       </c>
       <c r="B38" s="5">
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f>IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="B39" s="5">
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B39&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B40" s="5">
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B40&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="B41" s="5">
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B41&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="B42" s="5">
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B42&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="B43" s="5">
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B43&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>372</v>
+        <v>95</v>
       </c>
       <c r="B44" s="5">
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B44&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="B45" s="5">
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B45&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="B46" s="5">
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B46&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>387</v>
+        <v>129</v>
       </c>
       <c r="B47" s="5">
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B47&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="B48" s="5">
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B48&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="B49" s="5">
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B49&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="B50" s="5">
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B50&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>336</v>
+      <c r="A51" t="s">
+        <v>357</v>
       </c>
       <c r="B51" s="5">
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B51&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="B52" s="5">
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B52&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="B53" s="5">
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B53&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>345</v>
+        <v>119</v>
       </c>
       <c r="B54" s="5">
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B54&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B55" s="5">
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B55&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="B56" s="5">
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B56&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B57" s="5">
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B57&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B58" s="5">
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B58&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="B59" s="5">
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B59&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="B60" s="5">
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B60&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="B61" s="5">
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B61&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="B62" s="5">
         <v>0.1</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B62&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="B63" s="5">
         <v>0.1</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B63&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>354</v>
-      </c>
-      <c r="B64" s="5">
+        <v>189</v>
+      </c>
+      <c r="B64" s="4">
         <v>0.1</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B64&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>355</v>
-      </c>
-      <c r="B65" s="5">
+        <v>140</v>
+      </c>
+      <c r="B65" s="4">
         <v>0.1</v>
       </c>
       <c r="C65" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B65&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D65" s="10"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>356</v>
-      </c>
-      <c r="B66" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C66" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="10"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>357</v>
-      </c>
-      <c r="B67" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C67" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="A67" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="10"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>358</v>
-      </c>
-      <c r="B68" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C68" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="10"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>359</v>
-      </c>
-      <c r="B69" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C69" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="9"/>
       <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>360</v>
-      </c>
-      <c r="B70" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C70" s="9" t="str">
-        <f t="shared" ref="C70:C88" si="2">IF(B70&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="9"/>
       <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C71" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>361</v>
-      </c>
-      <c r="B72" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C72" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>362</v>
-      </c>
-      <c r="B73" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C73" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>363</v>
-      </c>
-      <c r="B74" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C74" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="10"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>364</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C75" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="9"/>
       <c r="D75" s="10"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>369</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C76" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="9"/>
       <c r="D76" s="10"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>371</v>
-      </c>
-      <c r="B77" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C77" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="9"/>
       <c r="D77" s="10"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>374</v>
-      </c>
-      <c r="B78" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C78" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="9"/>
       <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>376</v>
-      </c>
-      <c r="B79" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C79" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="9"/>
       <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>377</v>
-      </c>
-      <c r="B80" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C80" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="9"/>
       <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>100</v>
-      </c>
-      <c r="B81" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C81" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="9"/>
       <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>378</v>
-      </c>
-      <c r="B82" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C82" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="9"/>
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>391</v>
-      </c>
-      <c r="B83" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C83" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="9"/>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>190</v>
-      </c>
-      <c r="B84" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C84" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="9"/>
       <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>141</v>
-      </c>
-      <c r="B85" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C85" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="9"/>
       <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>395</v>
-      </c>
-      <c r="B86" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C86" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="9"/>
       <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>399</v>
-      </c>
-      <c r="B87" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C87" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="9"/>
       <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>400</v>
-      </c>
-      <c r="B88" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C88" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="9"/>
       <c r="D88" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A6:C88">
-    <sortCondition descending="1" ref="B88"/>
+    <sortCondition descending="1" ref="B70"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2880,7 +2786,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="B33" sqref="B7:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2891,15 +2797,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>8</v>
@@ -2908,10 +2817,14 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <f>B2*B2</f>
@@ -2919,7 +2832,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.203125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2928,128 +2845,128 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5">
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5">
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="5">
+        <v>68</v>
+      </c>
+      <c r="B14">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -3062,520 +2979,372 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="5">
+        <v>76</v>
+      </c>
+      <c r="B21">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>70</v>
+      <c r="A23" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>68</v>
+      <c r="A25" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>67</v>
+      <c r="A26" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="A35" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="9"/>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C54" si="1">IF(B38&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C38" s="9"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C43" s="9"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="A45" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="9"/>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="9"/>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C52" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A6:C54">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3586,7 +3355,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3597,15 +3366,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>10</v>
@@ -3614,10 +3386,14 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>10</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <f>B2*B2</f>
@@ -3625,7 +3401,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C98, "rare")</f>
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3634,297 +3414,297 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5">
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="5">
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="5">
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="5">
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="5">
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="5">
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="5">
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="2"/>
@@ -3937,443 +3717,298 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="B29" s="5">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B30" s="5">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B32" s="5">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C61" si="1">IF(B38&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C52" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>117</v>
-      </c>
-      <c r="B55" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C55" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C56" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C57" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C58" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C59" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C60" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>137</v>
-      </c>
-      <c r="B61" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C61" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A6:C61">
-    <sortCondition descending="1" ref="B61"/>
+    <sortCondition descending="1" ref="B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4381,10 +4016,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4393,17 +4028,20 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -4412,10 +4050,14 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <f>B2*B2</f>
@@ -4423,21 +4065,25 @@
       </c>
       <c r="C3">
         <f>COUNTIF(C$6:C98, "rare")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -4449,9 +4095,9 @@
         <v>common</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B7" s="4">
         <v>0.1</v>
@@ -4461,83 +4107,63 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -4572,7 +4198,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4581,17 +4207,20 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -4600,10 +4229,14 @@
         <f>COUNTIF(C$6:C100, "common")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <f>B2*B2</f>
@@ -4611,24 +4244,28 @@
       </c>
       <c r="C3">
         <f>COUNTIF(C$6:C100, "rare")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -4636,23 +4273,23 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C12" si="0">IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -4660,11 +4297,11 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -4672,55 +4309,48 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11">
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
@@ -4761,7 +4391,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4772,15 +4402,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>6</v>
@@ -4789,10 +4422,14 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>6</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <f>B2*B2</f>
@@ -4800,7 +4437,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4809,468 +4450,363 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B6" s="5">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C40" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B8" s="5">
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B12" s="5">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="B13" s="5">
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>313</v>
+        <v>140</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -5510,7 +5046,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C40">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5521,7 +5057,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5532,15 +5068,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>10</v>
@@ -5549,10 +5088,14 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>10</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <f>B2*B2</f>
@@ -5560,7 +5103,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5569,988 +5116,788 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B6" s="5">
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5">
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5">
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5">
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5">
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5">
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5">
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>269</v>
+        <v>83</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>263</v>
+        <v>68</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c r="B29" s="5">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="B30" s="5">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B32" s="5">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="B33" s="5">
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B34" s="5">
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="B35" s="5">
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B35&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="B36" s="5">
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B36&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="B37" s="5">
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B37&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c r="B38" s="5">
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f>IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B39" s="5">
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B39&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B40" s="5">
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B40&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B47" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B48" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B50" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B51" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B52" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C52" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B53" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B54" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B55" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C55" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B56" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C56" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B57" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C57" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C58" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C59" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B60" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C60" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B61" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C61" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B62" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C62" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="9"/>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B63" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C63" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B64" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C64" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="9"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B65" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C65" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B66" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C66" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B67" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C67" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B68" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C68" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B69" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C69" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="9"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B70" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C70" s="9" t="str">
-        <f t="shared" ref="C70:C80" si="2">IF(B70&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="9"/>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C71" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B72" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C72" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C73" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B74" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C74" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C75" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="9"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C76" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B77" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C77" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B78" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C78" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B79" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C79" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B80" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C80" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A6:C80">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6561,7 +5908,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6572,15 +5919,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
@@ -6589,10 +5939,14 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>4</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <f>B2*B2</f>
@@ -6600,7 +5954,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6609,156 +5967,135 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C16" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B8" s="5">
         <v>2</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B10" s="5">
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="5">
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>116</v>
+        <v>250</v>
       </c>
       <c r="B12" s="5">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13">
-        <v>0.1</v>
-      </c>
-      <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C14" s="9"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -6948,7 +6285,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C16">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6959,7 +6296,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6970,15 +6307,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>6</v>
@@ -6987,10 +6327,14 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>6</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <f>B2*B2</f>
@@ -6998,7 +6342,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7007,102 +6355,102 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="5">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C34" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" s="5">
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" s="5">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D12" s="8"/>
@@ -7115,287 +6463,217 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>224</v>
+        <v>68</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="9"/>
@@ -7403,7 +6681,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="9"/>
@@ -7411,7 +6689,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="9"/>
@@ -7419,7 +6697,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="9"/>
@@ -7427,7 +6705,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="9"/>
@@ -7435,7 +6713,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="9"/>
@@ -7443,7 +6721,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="9"/>
@@ -7451,7 +6729,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="9"/>
@@ -7459,7 +6737,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="9"/>
@@ -7467,14 +6745,14 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="9"/>
@@ -7482,7 +6760,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="9"/>
@@ -7495,7 +6773,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C46">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7506,7 +6784,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7517,15 +6795,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>6</v>
@@ -7534,10 +6815,14 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>6</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <f>B2*B2</f>
@@ -7545,7 +6830,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7554,564 +6843,427 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C47" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="B12" s="5">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="B13" s="5">
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B25">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C33" s="9"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B40">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C43" s="9"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B47" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A6:C47">
-    <sortCondition descending="1" ref="B47"/>
+    <sortCondition descending="1" ref="B24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8121,8 +7273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8133,15 +7285,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>6</v>
@@ -8150,10 +7305,14 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>6</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <f>B2*B2</f>
@@ -8161,7 +7320,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.19444444444444445</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8170,18 +7333,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="5">
         <v>6</v>
@@ -8194,7 +7357,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
@@ -8207,7 +7370,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5">
         <v>4</v>
@@ -8220,7 +7383,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" s="5">
         <v>3</v>
@@ -8233,7 +7396,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
@@ -8246,7 +7409,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -8259,7 +7422,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="B12" s="5">
         <v>0.1</v>
@@ -8272,7 +7435,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B13" s="5">
         <v>0.1</v>
@@ -8285,7 +7448,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
@@ -8298,7 +7461,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
@@ -8311,7 +7474,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
@@ -8324,7 +7487,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
@@ -8337,7 +7500,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
@@ -8350,241 +7513,151 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A6:C36">
-    <sortCondition descending="1" ref="B27"/>
+    <sortCondition descending="1" ref="B19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8595,7 +7668,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8606,15 +7679,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>6</v>
@@ -8623,10 +7699,14 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>6</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <f>B2*B2</f>
@@ -8634,7 +7714,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8643,89 +7727,89 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C24" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="4">
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -8738,170 +7822,125 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="5">
+        <v>146</v>
+      </c>
+      <c r="B13" s="4">
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B14" s="4">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="4">
+        <v>140</v>
+      </c>
+      <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A6:C24">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8909,10 +7948,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8921,17 +7960,20 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
@@ -8940,10 +7982,14 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <f>B2*B2</f>
@@ -8951,231 +7997,190 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C22" si="0">IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4">
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A6:C22">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
